--- a/01_Tableau & Excel/Jul4.xlsx
+++ b/01_Tableau & Excel/Jul4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\24_Ayush_One_to_one\01_Tableau &amp; Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2D59E3-1D5C-4E30-8336-69843ECBFBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89589C89-30AC-4A1E-A681-BB590AC42E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>City</t>
   </si>
@@ -68,13 +68,46 @@
   </si>
   <si>
     <t>We can't this through VLOOKUP</t>
+  </si>
+  <si>
+    <t>Enter the city</t>
+  </si>
+  <si>
+    <t>Index No</t>
+  </si>
+  <si>
+    <t>Match Function</t>
+  </si>
+  <si>
+    <t>Index Function</t>
+  </si>
+  <si>
+    <t>Enter Index No</t>
+  </si>
+  <si>
+    <t>Enter Row No</t>
+  </si>
+  <si>
+    <t>Enter Col No</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Enter City Name</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Direct Value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,16 +115,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -99,12 +158,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,7 +605,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25CB4C6F-95E1-4EA3-92DE-ADE309466A2A}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -525,9 +613,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
@@ -563,6 +651,10 @@
         <f>VLOOKUP(A2, Population!$B$1:$D$7, 3, FALSE)</f>
         <v>68.7</v>
       </c>
+      <c r="D2">
+        <f>VLOOKUP(A2, Population!$B$1:$C$7, 2, FALSE)</f>
+        <v>86</v>
+      </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
@@ -578,6 +670,10 @@
         <f>VLOOKUP(A3, Population!$B$1:$D$7, 3, FALSE)</f>
         <v>68.8</v>
       </c>
+      <c r="D3">
+        <f>VLOOKUP(A3, Population!$B$1:$C$7, 2, FALSE)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -590,6 +686,10 @@
         <f>VLOOKUP(A4, Population!$B$1:$D$7, 3, FALSE)</f>
         <v>64.900000000000006</v>
       </c>
+      <c r="D4">
+        <f>VLOOKUP(A4, Population!$B$1:$C$7, 2, FALSE)</f>
+        <v>1.5</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -602,6 +702,10 @@
         <f>VLOOKUP(A5, Population!$B$1:$D$7, 3, FALSE)</f>
         <v>72.3</v>
       </c>
+      <c r="D5">
+        <f>VLOOKUP(A5, Population!$B$1:$C$7, 2, FALSE)</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -614,6 +718,10 @@
         <f>VLOOKUP(A6, Population!$B$1:$D$7, 3, FALSE)</f>
         <v>52.2</v>
       </c>
+      <c r="D6">
+        <f>VLOOKUP(A6, Population!$B$1:$C$7, 2, FALSE)</f>
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -626,11 +734,178 @@
         <f>VLOOKUP(A7, Population!$B$1:$D$7, 3, FALSE)</f>
         <v>60.5</v>
       </c>
+      <c r="D7">
+        <f>VLOOKUP(A7, Population!$B$1:$C$7, 2, FALSE)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <f>MATCH("Patan", A1:A7, 0)</f>
+        <v>5</v>
+      </c>
+      <c r="D12" t="str">
+        <f>INDEX(A1:A7, 3)</f>
+        <v>Disa</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <f>MATCH("Rajkot", A3:A7, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <f>INDEX(A1:D7, 5, 4)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f>MATCH(B15, A1:A7, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" t="str">
+        <f>INDEX(A1:A7, E15)</f>
+        <v>Disa</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <f>MATCH(2400, A4:D4, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <f>INDEX(A1:D7, E18,E19)</f>
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="F24" s="6">
+        <f>MATCH(C24, A1:A7, 0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="F25" s="6">
+        <f>MATCH(C25, A1:D1, 0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="4">
+        <f>IFERROR(INDEX(A1:D7, F24, F25), "Please Select City &amp; Parameter")</f>
+        <v>64.900000000000006</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="7">
+        <f>INDEX(A1:D7, MATCH(C24, A1:A7, 0), MATCH(C25, A1:D1, 0))</f>
+        <v>64.900000000000006</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
     <sortCondition ref="A2:A7"/>
   </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24" xr:uid="{D72016EE-0368-4F26-80DD-5FD72C0571D4}">
+      <formula1>$A$2:$A$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25" xr:uid="{44D3A4C6-815A-4973-97E3-DDA933B60FF4}">
+      <formula1>$A$1:$D$1</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>